--- a/Medvedev.xlsx
+++ b/Medvedev.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>Исходные данные</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Критерий:</t>
-  </si>
-  <si>
-    <t>Первостепенность:</t>
   </si>
   <si>
     <t>К1</t>
@@ -145,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,15 +233,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,66 +525,48 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="18.28515625" customWidth="1"/>
+    <col min="1" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -607,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -627,7 +606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -647,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -667,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -707,37 +686,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -757,7 +736,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -777,7 +756,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -797,7 +776,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -817,7 +796,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -837,7 +816,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -857,37 +836,37 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +891,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -937,7 +916,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,7 +941,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>4</v>
       </c>
@@ -987,7 +966,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +991,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1037,37 +1016,37 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1092,7 +1071,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1096,7 @@
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1121,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1146,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -1192,7 +1171,7 @@
         <v>3.7500000000000006E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
@@ -1217,39 +1196,39 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2">
         <f>MAX(B31:B36)</f>
@@ -1260,21 +1239,21 @@
         <v>0.16564728911226981</v>
       </c>
       <c r="D40" s="2">
-        <f>MIN(D31:D36)</f>
-        <v>2.851811900690341E-2</v>
+        <f t="shared" ref="D40:F40" si="9">MAX(D31:D36)</f>
+        <v>5.3936442469578183E-2</v>
       </c>
       <c r="E40" s="2">
-        <f>MIN(E31:E36)</f>
-        <v>3.9244968725068968E-2</v>
+        <f t="shared" si="9"/>
+        <v>4.1599666848573108E-2</v>
       </c>
       <c r="F40" s="2">
-        <f>MIN(F31:F36)</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2">
         <f>MIN(B31:B36)</f>
@@ -1285,144 +1264,144 @@
         <v>8.8345220859877227E-2</v>
       </c>
       <c r="D41" s="2">
-        <f>MAX(D31:D36)</f>
-        <v>5.3936442469578183E-2</v>
+        <f t="shared" ref="D41:F41" si="10">MIN(D31:D36)</f>
+        <v>2.851811900690341E-2</v>
       </c>
       <c r="E41" s="2">
-        <f>MAX(E31:E36)</f>
-        <v>4.1599666848573108E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.9244968725068968E-2</v>
       </c>
       <c r="F41" s="2">
-        <f>MAX(F31:F36)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="2">
         <f>((B31-B40)^2+(C31-C40)^2+(D31-D40)^2+(E31-E40)^2+(F31-F40)^2)^0.5</f>
-        <v>9.8598372465081893E-2</v>
+        <v>0.10569272739701499</v>
       </c>
       <c r="C45" s="2">
         <f>((B31-B41)^2+(C31-C41)^2+(D31-D41)^2+(E31-E41)^2+(F31-F41)^2)^0.5</f>
-        <v>6.4466680016680586E-2</v>
+        <v>5.2025371315507017E-2</v>
       </c>
       <c r="D45" s="2">
         <f>C45/(B45+C45)</f>
-        <v>0.39534332486043056</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.3298630388027653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B46" s="2">
         <f>((B32-B40)^2+(C32-C40)^2+(D32-D40)^2+(E32-E40)^2+(F32-F40)^2)^0.5</f>
-        <v>9.0435858681865905E-2</v>
+        <v>8.8733825738499597E-2</v>
       </c>
       <c r="C46" s="2">
         <f>((B32-B41)^2+(C32-C41)^2+(D32-D41)^2+(E32-E41)^2+(F32-F41)^2)^0.5</f>
-        <v>6.386439767544351E-2</v>
+        <v>6.6208866443877468E-2</v>
       </c>
       <c r="D46" s="2">
-        <f t="shared" ref="D46:D50" si="9">C46/(B46+C46)</f>
-        <v>0.41389689935157492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D46:D50" si="11">C46/(B46+C46)</f>
+        <v>0.42731196619422085</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2">
         <f>((B33-B40)^2+(C33-C40)^2+(D33-D40)^2+(E33-E40)^2+(F33-F40)^2)^0.5</f>
-        <v>8.0778850304031577E-2</v>
+        <v>9.1527500171826523E-2</v>
       </c>
       <c r="C47" s="2">
         <f>((B33-B41)^2+(C33-C41)^2+(D33-D41)^2+(E33-E41)^2+(F33-F41)^2)^0.5</f>
-        <v>6.7002887983867027E-2</v>
+        <v>5.1354905967356916E-2</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" si="9"/>
-        <v>0.45339085031830145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>0.35942078073161432</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B48" s="2">
         <f>((B34-B40)^2+(C34-C40)^2+(D34-D40)^2+(E34-E40)^2+(F34-F40)^2)^0.5</f>
-        <v>7.4362694510617278E-2</v>
+        <v>5.9268656874076328E-2</v>
       </c>
       <c r="C48" s="2">
         <f>((B34-B41)^2+(C34-C41)^2+(D34-D41)^2+(E34-E41)^2+(F34-F41)^2)^0.5</f>
-        <v>7.8527797926561976E-2</v>
+        <v>9.0463537927815682E-2</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" si="9"/>
-        <v>0.51362119824964292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+        <f t="shared" si="11"/>
+        <v>0.60416891669494577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="4">
         <f>((B35-B40)^2+(C35-C40)^2+(D35-D40)^2+(E35-E40)^2+(F35-F40)^2)^0.5</f>
-        <v>0.12041749024471364</v>
-      </c>
-      <c r="C49" s="6">
+        <v>0.12307847628880179</v>
+      </c>
+      <c r="C49" s="4">
         <f>((B35-B41)^2+(C35-C41)^2+(D35-D41)^2+(E35-E41)^2+(F35-F41)^2)^0.5</f>
-        <v>3.6111538885009904E-2</v>
-      </c>
-      <c r="D49" s="6">
-        <f t="shared" si="9"/>
-        <v>0.23070186460482317</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+        <v>2.5614524627760357E-2</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="11"/>
+        <v>0.1722644944272376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <f>((B36-B40)^2+(C36-C40)^2+(D36-D40)^2+(E36-E40)^2+(F36-F40)^2)^0.5</f>
-        <v>3.9496705162029848E-2</v>
-      </c>
-      <c r="C50" s="8">
+        <v>1.8201446180768736E-2</v>
+      </c>
+      <c r="C50" s="6">
         <f>((B36-B41)^2+(C36-C41)^2+(D36-D41)^2+(E36-E41)^2+(F36-F41)^2)^0.5</f>
-        <v>0.12259371625245052</v>
-      </c>
-      <c r="D50" s="7">
-        <f t="shared" si="9"/>
-        <v>0.756329184554138</v>
+        <v>0.12750653449988847</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="11"/>
+        <v>0.87508270929469412</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A29:F29"/>
